--- a/medicine/Enfance/Olivier_Tallec/Olivier_Tallec.xlsx
+++ b/medicine/Enfance/Olivier_Tallec/Olivier_Tallec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olivier Tallec est un auteur jeunesse et illustrateur français né à Morlaix le 28 août 1970.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Olivier Tallec a suivi des cours à l'École supérieure des arts appliqués Duperré à Paris. Il a illustré de nombreux articles de presse (pour Libération, Le Monde, Elle, XXI, etc.) et publié un grand nombre d'albums jeunesse, traduits dans de nombreux pays, dont il écrit parfois le texte.
-Il illustre plusieurs séries dont Rita et Machin (avec Jean-Philippe Arrou-Vignod), aux éditions Gallimard Jeunesse, qui sera adaptée par NHK pour la télévision japonaise et française et au grand écran avec une série de 10 courts-métrages[1],[2].
-Il a travaillé aussi sur Grand Loup et Petit Loup (série écrite par Nadine Brun-Cosme) aux éditions Flammarion-Père Castor[3], la série des QuiQuoi (avec Laurent Rivelaygue) aux éditions Actes Sud Junior (série animée en cours de production pour France Télévision), ou encore la série Cake &amp; Monkey  avec Drew Daywalt chez l'éditeur américain Scholastic.
+Il illustre plusieurs séries dont Rita et Machin (avec Jean-Philippe Arrou-Vignod), aux éditions Gallimard Jeunesse, qui sera adaptée par NHK pour la télévision japonaise et française et au grand écran avec une série de 10 courts-métrages,.
+Il a travaillé aussi sur Grand Loup et Petit Loup (série écrite par Nadine Brun-Cosme) aux éditions Flammarion-Père Castor, la série des QuiQuoi (avec Laurent Rivelaygue) aux éditions Actes Sud Junior (série animée en cours de production pour France Télévision), ou encore la série Cake &amp; Monkey  avec Drew Daywalt chez l'éditeur américain Scholastic.
 Il se lance également dans le dessin d'humour avec Bonne journée, Bonne continuation et Je reviens vers vous parus aux éditions Rue de Sèvres.
-En 2013, la Poste fait appel à lui pour la création de quatre timbres [4].
+En 2013, la Poste fait appel à lui pour la création de quatre timbres .
 Il vit et travaille à Paris.
 </t>
         </is>
@@ -547,12 +561,14 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Premio nazionale Nati per Leggere 2014[5] du Salon international du livre (Turin) pour Grand loup et Petit loup, qu'il a illustré, sur un texte de Nadine Brun-Cosme.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Premio nazionale Nati per Leggere 2014 du Salon international du livre (Turin) pour Grand loup et Petit loup, qu'il a illustré, sur un texte de Nadine Brun-Cosme.
 Prix Landerneau Jeunesse 2014 pour Louis 1er roi des moutons
- Prix jeunesse des libraires du Québec 2016[6] pour Moi devant, qu'il a illustré, sur un texte de Nadine Brun-Cosme.
- Finaliste Prix des libraires du Québec Jeunesse 2021[7] (Catégorie hors Québec, 6-11 ans) pour Dagfrid : des brioches sur les oreilles, qu'il a illustré, sur un texte de Agnès Mathieu-Daudé</t>
+ Prix jeunesse des libraires du Québec 2016 pour Moi devant, qu'il a illustré, sur un texte de Nadine Brun-Cosme.
+ Finaliste Prix des libraires du Québec Jeunesse 2021 (Catégorie hors Québec, 6-11 ans) pour Dagfrid : des brioches sur les oreilles, qu'il a illustré, sur un texte de Agnès Mathieu-Daudé</t>
         </is>
       </c>
     </row>
@@ -580,7 +596,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Anton et la musique cubaine, texte d'Emmanuel Viau, Gallimard Jeunesse, coll. « Musiques d'ailleurs », livre et CD, 1998
 Mon imagier sonore, Gallimard Jeunesse, coll. « Éveil musical », livre et CD, 2000
@@ -615,22 +633,22 @@
 Pendant la Seconde Guerre mondiale, texte de Yaël Hassan, illustré avec Nicolas Wintz, Gallimard Jeunesse, coll. « Le journal d'un enfant », 2005
 Le carnaval des animaux, textes de Carl Norac, d'après l'œuvre de Camille Saint-Saëns ; Sébastien Dutrieux, voix ; orchestre du Théâtre royal de la Monnaie de Bruxelles ; dir. Alexander Winterson, Sarbacane, 2005 - livre-disque
 Mon imagier de l’alphabet, texte de Bernard Davois, Gallimard Jeunesse, coll. « Éveil musical », livre et CD, 2005
-Ceci est un poème qui guérit les poissons, texte de Jean-Pierre Siméon, Rue du monde, coll. « Petits géants », 2005[8]
+Ceci est un poème qui guérit les poissons, texte de Jean-Pierre Siméon, Rue du monde, coll. « Petits géants », 2005
 Série Grand Loup et Petit Loup, texte de Nadine Brun-Cosme, Flammarion-Père Castor, 2005-2010
 Grand Loup et Petit Loup, 2005 -  Premio nazionale Nati per Leggere 2014
 Grand Loup et Petit Loup. La petite feuille qui ne tombait pas, 2007
-Grand Loup et Petit Loup. Une si belle orange[3], 2010
+Grand Loup et Petit Loup. Une si belle orange, 2010
 Poucette de Toulaba, texte de Daniel Picouly, Rue du monde, 2006
 Mon imagier des comptines à compter, Gallimard Jeunesse, coll. « Éveil musical », livre et CD, 2006
 Dans la rue, texte de Xavier Emmanuelli et Clémentine Frémontier, Le Baron perché, 2006
 Série Rita et Machin , texte de Jean-Philippe Arrou-Vignod, série d'une quinzaine d'albums, Gallimard jeunesse, 2006-2013
 Mercredi à la librairie, texte de Sylvie Neeman, Sarbacane, 2007
 Charlepogne et Poilenfrac, texte de Roland Fuentès, Le Baron perché, 2007
-Maintenant[9], texte de Alain Serres, Rue du monde, 2007
+Maintenant, texte de Alain Serres, Rue du monde, 2007
 Le Rêve de Jacek, de Valentine Goby, Autrement jeunesse, coll. « Français d'ailleurs », 2007
 Le Cahier de Leïla, de Valentine Goby, Autrement jeunesse, coll. « Français d'ailleurs », 2008
 Adama ou la vie en 3D, de Valentine Goby, Autrement jeunesse, coll. « Français d'ailleurs », 2008
-La Croûte[10], texte de Charlotte Moundlic, Flammarion-Père Castor, 2009
+La Croûte, texte de Charlotte Moundlic, Flammarion-Père Castor, 2009
 Negrinha, scénario de Jean Christophe Camus, Gallimard jeunesse, coll. « Bayou », 2009
 Les Grands Soldats, scénario de Laurent Rivelaygue, Gallimard jeunesse, coll. « Bayou », 2010
 Pas de pitié pour les baskets, texte de Joy Sorman, Hélium, 2010
@@ -639,14 +657,14 @@
 Waterlo &amp; Trafalgar, Flammarion-Père Castor, 2012
 Michka, texte de Marie Colmont, Flammarion-Père Castor, 2012
 Mon cœur en miettes, texte de Charlotte Moundlic, Flammarion-Père Castor, 2012
-Jérôme par cœur[11], texte de Thomas Scotto, Actes Sud junior, 2009 ; rééd. 2015
+Jérôme par cœur, texte de Thomas Scotto, Actes Sud junior, 2009 ; rééd. 2015
 Kevin et les extra-terrestres, texte de Laurent Rivelaygue, 2013
 Marlaguette, texte de Marie Colmont, Flammarion-Père Castor, 2013
 La Boum ou la plus mauvaise idée de ma vie, texte de Charlotte Moundlic, Flammarion-Père Castor, 2014
 Moi devant, texte de Nadine Brun-Cosme, Flammarion-Père Castor, 2015 -  Prix jeunesse des libraires du Québec 2016
 Qui quoi qui, Actes Sud junior, 2014
 Bonne journée, Rue de Sèvres, 2014
-Louis 1er, Roi des Moutons[12], Flammarion-Père Castor, 2014 - Prix Landerneau Jeunesse 2014
+Louis 1er, Roi des Moutons, Flammarion-Père Castor, 2014 - Prix Landerneau Jeunesse 2014
 Qui quoi où ?, Actes Sud junior, 2015
  Série Les Quiquoi , avec Laurent Rivelaygue, Actes Sud junior, 2015-2018
 Les Quiquoi et l’étrange maison qui n’en finit pas de grandir, 2015
@@ -660,12 +678,12 @@
 Bonne Continuation, Rue de Sèvres, 2016
  Qui quoi quoi qui, Actes Sud junior, 2017
 (en) This Book Will not be Fun, de Cirocco Dunlap, Penguin Random House (États-Unis), 2017
-J'en rêvais depuis longtemps[13],[14], Actes Sud junior, 2018
+J'en rêvais depuis longtemps Actes Sud junior, 2018
 Je reviens vers vous, Rue de Sèvres, 2018
 (en) Drew Daywalt, « The Fort », Cake &amp; Monkey, Scholastic (États-Unis), 2018
 (en) Drew Daywalt, « The box », Cake &amp; Monkey, Scholastic (États-Unis), 2018
-AbécéBêtes[15], Actes Sud junior, 2019
-C'est mon arbre[16], L'École des loisirs, coll. « Pastel », 2019
+AbécéBêtes, Actes Sud junior, 2019
+C'est mon arbre, L'École des loisirs, coll. « Pastel », 2019
 Un peu beaucoup, L'École des loisirs, coll. « Pastel », 2020
 Moby Dick de Herman Melville, L'École des loisirs, coll. « Illustres Classiques », 2020
 Dagfrid. Des brioches sur les oreilles de Agnès Mathieu-Daudé, L'École des loisirs, coll. « Mouche », 2020
@@ -702,11 +720,13 @@
           <t>Adaptations de son œuvre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sa série jeunesse Rita et Machin, qu'il a illustrée sur des textes de Jean-Philippe Arrou-Vignod est adaptée :
-en une série télévisée franco-japonaise d'animation Rita et Machin, diffusée au Japon sur NHK et en France sur France 5 en 2012[1]
-au cinéma, en février 2019, dans Les Aventures de Rita et Machin, une série d'animation franco-japonaise de 10 courts métrages, réalisée par Pon Kozutsumi et Jun Takagi[2].</t>
+en une série télévisée franco-japonaise d'animation Rita et Machin, diffusée au Japon sur NHK et en France sur France 5 en 2012
+au cinéma, en février 2019, dans Les Aventures de Rita et Machin, une série d'animation franco-japonaise de 10 courts métrages, réalisée par Pon Kozutsumi et Jun Takagi.</t>
         </is>
       </c>
     </row>
